--- a/experiment result cnn/1024_0.2_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/1024_0.2_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007839876859024309</v>
+        <v>0.0001000339999897118</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005122653851326041</v>
+        <v>0.0005005419508360515</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007334239855571191</v>
+        <v>0.0003601359963503179</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006238444012792311</v>
+        <v>0.001103165622112283</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01118049114980628</v>
+        <v>0.000761371917795005</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0030860967476002</v>
+        <v>0.000340513997370118</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002205914341419584</v>
+        <v>0.000280195999726799</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002568668836006526</v>
+        <v>0.0002601939834667879</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009082487966959285</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02616158704934637</v>
+        <v>0.0009632438967665547</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003922078754349806</v>
+        <v>0.0009815618001668763</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002725076024826869</v>
+        <v>0.00332656483382704</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01164148457429371</v>
+        <v>0.003143050250989492</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01109538134598824</v>
+        <v>0.002010873816768998</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.001413881187724994</v>
+        <v>0.0002000839967592421</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001617706215455885</v>
+        <v>0.0002401079999377696</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.003995762643320319</v>
+        <v>0.0005806139973316028</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.009877269977722796</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01997666841836849</v>
+        <v>0.0004402559997588503</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.006786582293958053</v>
+        <v>0.00387211174863176</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.004273529442276116</v>
+        <v>0.0004005879966471015</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006011659177433965</v>
+        <v>0.0002802199993958173</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.007278505927165213</v>
+        <v>0.0003601719869883851</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00659687072334017</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003267228071373278</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004545125512286694</v>
+        <v>0.001388460409287438</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005495246858967783</v>
+        <v>0.0001400419999890715</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006895749948877159</v>
+        <v>8.001199999927973e-05</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.009364856839505397</v>
+        <v>0.0002601259892707216</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01073286718986721</v>
+        <v>0.002263331129703761</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005416523569536278</v>
+        <v>0.0005604959989519221</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.001889441455898215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.005810963256655807</v>
+        <v>0.001345129313204945</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.001698489164233089</v>
+        <v>0.001527359468587277</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.006843358000294284</v>
+        <v>0.00376842969813516</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.002896131647444662</v>
+        <v>0.0005206479966194748</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001985279150522992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.001987831048130292</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01774470024736606</v>
+        <v>0.0004005959366419998</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.007661315771166794</v>
+        <v>0.002804068137845075</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00642848226400179</v>
+        <v>0.0004002519899073796</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01419257565476375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.004454309312782672</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001567175858627012</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.008919711726887259</v>
+        <v>0.003370109789553591</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01165874502850034</v>
+        <v>0.0002801719900234219</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.006859381521577558</v>
+        <v>0.00138592392921348</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01120425239475149</v>
+        <v>0.003124790643637916</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00937446917212206</v>
+        <v>0.000100021999996678</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.002878852257839642</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01095958305447805</v>
+        <v>0.05333961258139273</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.003693696842678077</v>
+        <v>0.0492968887115613</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01036500111670205</v>
+        <v>0.0002200939999447758</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04365186559784848</v>
+        <v>0.005536958275126338</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.004571652364136893</v>
+        <v>0.05500913852952415</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02862922789263847</v>
+        <v>0.02432795185623925</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01227920853153463</v>
+        <v>0.0004802199998922881</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0232761955653336</v>
+        <v>0.05652408666564089</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09380210397894792</v>
+        <v>0.0009007499859033681</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02278861760443655</v>
+        <v>0.002935303022571062</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01171400390418455</v>
+        <v>0.004908254987318571</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02341771372267821</v>
+        <v>0.009458353077146476</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.008912392524697093</v>
+        <v>0.001183613323961597</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.08687263142525559</v>
+        <v>0.03432099080033674</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06676988949954976</v>
+        <v>0.002466967452842884</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01406671168448679</v>
+        <v>0.01634456760367212</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02549264698176187</v>
+        <v>0.06046320506874675</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0003499706738178048</v>
+        <v>0.2087799282352284</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0567368485921124</v>
+        <v>0.0002201179999005435</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03103591170396643</v>
+        <v>0.007251910758680381</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0124409498294603</v>
+        <v>0.01213493263332375</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0159637441601621</v>
+        <v>0.03045551756557004</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02094738889245204</v>
+        <v>0.01543126457561535</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00980740421496251</v>
+        <v>0.1216970885005541</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01422909646595147</v>
+        <v>0.06574128509861867</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001869079395232962</v>
+        <v>0.04922797195026001</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03849027255353496</v>
+        <v>0.003277372996697666</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04818244352648022</v>
+        <v>0.08393368294805201</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01697489297123889</v>
+        <v>0.02498248310415906</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001689792514176424</v>
+        <v>0.005046882914760882</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08743627744874241</v>
+        <v>0.04963980195594688</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03559056610322305</v>
+        <v>0.001846303185581988</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02625524917829306</v>
+        <v>0.001443239645749524</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.002042855008267642</v>
+        <v>0.04847320458165674</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0008433765520435143</v>
+        <v>0.01539709335604384</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.005095338608217107</v>
+        <v>0.007029254914880667</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01191572662292808</v>
+        <v>0.002380613377536135</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03172795904319802</v>
+        <v>0.05610221481946913</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01108152201274547</v>
+        <v>0.01315277247980015</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.005176165914639742</v>
+        <v>0.004093387517378607</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0006425329735180044</v>
+        <v>0.2848520463814653</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01077833485628859</v>
+        <v>0.07261398325521293</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.002065163257601276</v>
+        <v>0.001926703506379288</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01978929467463813</v>
+        <v>0.03866330234870254</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0194311256364297</v>
+        <v>0.0002000919999448158</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.048947981327771</v>
+        <v>0.01825519658325723</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01895830299076612</v>
+        <v>0.1684674689443444</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0005324282504404634</v>
+        <v>0.2099627964883189</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02089248783917532</v>
+        <v>0.02440748694671179</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0376143095917502</v>
+        <v>0.1017283134114309</v>
       </c>
     </row>
   </sheetData>
